--- a/RX TX 값 표.xlsx
+++ b/RX TX 값 표.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youngjin\Desktop\spring_toyproject\toyproject_backend\final_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youngjin\Desktop\final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6143E0C7-1EAD-4817-AE00-2E5FBCB8F733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BF63104-F31A-4B43-9145-1A4B4A971547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{734A6EE3-97BF-4A5B-A06D-2396B9778085}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>파이썬</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>화살표 인식요청</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>왼쪽인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오른쪽인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화살표인식못함</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B24B464A-8ADD-4F4E-A676-86E881A30498}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -591,6 +603,28 @@
       <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="C13">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C14">
+        <v>121</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="C15">
+        <v>122</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
